--- a/users.xlsx
+++ b/users.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C7" t="n">
